--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_6_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7917.442859320691</v>
+        <v>1575571.129004817</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7917.442859320691</v>
+        <v>1575571.129004817</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28689.93319321025</v>
+        <v>1734076.041001124</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28689.93319321025</v>
+        <v>1734076.041001124</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341894028.176281</v>
+        <v>53039834.5912534</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12072.79155489037</v>
+        <v>1197129.637940916</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23590.50618739336</v>
+        <v>2299084.548231936</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35108.22081989631</v>
+        <v>3401039.458522957</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47847.80840724095</v>
+        <v>4436787.405859791</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60587.39599458554</v>
+        <v>5472535.353196624</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73326.98358193014</v>
+        <v>6508283.300533454</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86298.4173585986</v>
+        <v>7550783.061286202</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99235.92242463437</v>
+        <v>8586531.00862303</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>111941.5813013462</v>
+        <v>9615527.142543936</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124561.6299277543</v>
+        <v>10656293.93277811</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>136208.750455468</v>
+        <v>11758248.84306913</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147855.8709831816</v>
+        <v>12860203.75336016</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>159502.9915108952</v>
+        <v>13962158.66365119</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>172254.8182612271</v>
+        <v>14996936.33300041</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>184898.9145824375</v>
+        <v>16010811.07433148</v>
       </c>
     </row>
   </sheetData>
